--- a/data/03025.xlsx
+++ b/data/03025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2915,6 +2915,43 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>03025</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ENEST</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03025.xlsx
+++ b/data/03025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,6 +2952,43 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>03025</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ENEST</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03025.xlsx
+++ b/data/03025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2989,6 +2989,43 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>03025</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ENEST</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03025.xlsx
+++ b/data/03025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3026,6 +3026,43 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>03025</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ENEST</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03025.xlsx
+++ b/data/03025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,6 +3063,41 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>03025</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ENEST</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I74" t="n">
+        <v>453600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03025.xlsx
+++ b/data/03025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3098,6 +3098,41 @@
         <v>453600</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>03025</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ENEST</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I75" t="n">
+        <v>720000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
